--- a/Mars_Competition_Task/Spreadsheets/Test Data.xlsx
+++ b/Mars_Competition_Task/Spreadsheets/Test Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankur\Desktop\Mars_Competition_Task\Mars_Competition_Task\Mars_Competition_Task\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6B374-DE9C-4279-8A10-E1C76C9D0D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B645D20A-264F-411D-9B89-F2704D09895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="ShareSkill" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -37,13 +38,46 @@
   </si>
   <si>
     <t>Singhal&amp;18</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Work Samples</t>
+  </si>
+  <si>
+    <t>aaaaaa</t>
+  </si>
+  <si>
+    <t>Ankur Singhal</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>C:\Users\ankur\Desktop\Mars_Competition_Task\download.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +92,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,10 +121,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -368,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -387,7 +433,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -400,4 +446,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A8F345-3375-466F-B637-C5A084288F2B}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>